--- a/DATA_goal/Junction_Flooding_216.xlsx
+++ b/DATA_goal/Junction_Flooding_216.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41648.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>108.19</v>
+        <v>10.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.87</v>
+        <v>2.09</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.29</v>
+        <v>1.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41648.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.15</v>
+        <v>1.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="U3" s="4" t="n">
         <v>1.06</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>10.65</v>
-      </c>
       <c r="V3" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41648.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.02</v>
+        <v>2.6</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.22</v>
+        <v>0.72</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>102.52</v>
+        <v>10.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.1</v>
+        <v>2.01</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41648.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.85</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41648.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>40.33</v>
+        <v>4.03</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>32.92</v>
+        <v>3.29</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>50.6</v>
+        <v>5.06</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.42</v>
+        <v>1.64</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>16.99</v>
+        <v>1.7</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>20.54</v>
+        <v>2.05</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>213.54</v>
+        <v>21.35</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>40.4</v>
+        <v>4.04</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>27.12</v>
+        <v>2.71</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>25.79</v>
+        <v>2.58</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>45.79</v>
+        <v>4.58</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41648.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>38.03</v>
+        <v>3.8</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>31.1</v>
+        <v>3.11</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>53.48</v>
+        <v>5.35</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.04</v>
+        <v>1.6</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>200.99</v>
+        <v>20.1</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>38.29</v>
+        <v>3.83</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>25.74</v>
+        <v>2.57</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.43</v>
+        <v>2.64</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>48.83</v>
+        <v>4.88</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41648.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.74</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41648.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>48.7</v>
+        <v>4.87</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41648.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4" t="n">
         <v>3.39</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>33.87</v>
-      </c>
       <c r="U10" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_216.xlsx
+++ b/DATA_goal/Junction_Flooding_216.xlsx
@@ -444,36 +444,36 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44897.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.28</v>
+        <v>32.82</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.8</v>
+        <v>47.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.15</v>
+        <v>221.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.76</v>
+        <v>27.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.26</v>
+        <v>42.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44897.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.48</v>
+        <v>24.84</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.65</v>
+        <v>36.49</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>130.03</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.27</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>3.33</v>
+        <v>33.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44897.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.45</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.44</v>
+        <v>34.37</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.8</v>
+        <v>27.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.76</v>
+        <v>47.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.55</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.15</v>
+        <v>181.52</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.67</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.11</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.31</v>
+        <v>43.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44897.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.49</v>
+        <v>44.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.67</v>
+        <v>36.73</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.24</v>
+        <v>62.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.5</v>
+        <v>25.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.9</v>
+        <v>18.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.3</v>
+        <v>22.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.88</v>
+        <v>238.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.52</v>
+        <v>45.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.66</v>
+        <v>56.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_216.xlsx
+++ b/DATA_goal/Junction_Flooding_216.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,28 +655,28 @@
         <v>44897.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.9</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.81</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.82</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.99</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.710000000000001</v>
@@ -685,19 +685,19 @@
         <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.74</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.99</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>12.85</v>
@@ -706,52 +706,52 @@
         <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.55</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.55</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.31</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.13</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.05</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.56</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.56</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.95</v>
+        <v>7.949</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.646</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.84</v>
+        <v>24.835</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>19.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.49</v>
+        <v>36.488</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.943</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.74</v>
+        <v>8.738</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.92</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.32</v>
+        <v>10.316</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.65</v>
+        <v>12.654</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.89</v>
+        <v>7.885</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.514</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.03</v>
+        <v>130.027</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.32</v>
+        <v>25.321</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.67</v>
+        <v>16.667</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.609</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.76</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.53</v>
+        <v>17.526</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.732</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>7.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>33.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.56</v>
+        <v>4.558</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44897.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.447</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.303</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.37</v>
+        <v>34.372</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.97</v>
+        <v>27.968</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.48</v>
+        <v>12.476</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.57</v>
+        <v>47.567</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.4</v>
+        <v>8.401</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.406</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.79</v>
+        <v>13.792</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>14.46</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.985</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.55</v>
+        <v>17.553</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.6</v>
+        <v>10.602</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.046</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.52</v>
+        <v>181.516</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.67</v>
+        <v>34.673</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.13</v>
+        <v>23.135</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.1</v>
+        <v>12.097</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.03</v>
+        <v>2.026</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.11</v>
+        <v>23.111</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.65</v>
+        <v>10.646</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.38</v>
+        <v>14.377</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>43.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.38</v>
+        <v>6.383</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>18.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44897.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.43</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_216.xlsx
+++ b/DATA_goal/Junction_Flooding_216.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,52 +967,52 @@
         <v>44897.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.18</v>
+        <v>15.177</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.248</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.87</v>
+        <v>44.872</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.73</v>
+        <v>36.735</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.26</v>
+        <v>16.257</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>62.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.01</v>
+        <v>25.014</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.08</v>
+        <v>11.078</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.4</v>
+        <v>16.403</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.01</v>
+        <v>18.014</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.96</v>
+        <v>18.961</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.19</v>
+        <v>5.193</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.98</v>
+        <v>22.982</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.65</v>
+        <v>13.655</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.85</v>
@@ -1021,49 +1021,153 @@
         <v>0.84</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.75</v>
+        <v>238.754</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>45.2</v>
+        <v>45.201</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.35</v>
+        <v>30.348</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>15.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.43</v>
+        <v>2.425</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.41</v>
+        <v>30.408</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.71</v>
+        <v>11.715</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.76</v>
+        <v>13.764</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.86</v>
+        <v>18.855</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.59</v>
+        <v>56.586</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>8.388999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.66</v>
+        <v>18.656</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44897.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.43</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_216.xlsx
+++ b/DATA_goal/Junction_Flooding_216.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -967,52 +967,52 @@
         <v>44897.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.658</v>
+        <v>20.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.177</v>
+        <v>15.18</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.248</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.872</v>
+        <v>44.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.735</v>
+        <v>36.73</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.257</v>
+        <v>16.26</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>62.37</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.014</v>
+        <v>25.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.078</v>
+        <v>11.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.403</v>
+        <v>16.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.014</v>
+        <v>18.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.961</v>
+        <v>18.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.193</v>
+        <v>5.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.166</v>
+        <v>16.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.982</v>
+        <v>22.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.655</v>
+        <v>13.65</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.85</v>
@@ -1021,153 +1021,49 @@
         <v>0.84</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.754</v>
+        <v>238.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>45.201</v>
+        <v>45.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.922</v>
+        <v>14.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.348</v>
+        <v>30.35</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>15.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.425</v>
+        <v>2.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.408</v>
+        <v>30.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.181</v>
+        <v>13.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.715</v>
+        <v>11.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.764</v>
+        <v>13.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.855</v>
+        <v>18.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.586</v>
+        <v>56.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.388999999999999</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.656</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44897.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.43</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.85</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
